--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FFlaskApplication\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128979E9-2CD7-4D54-9BB3-9A1DFFF47370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+  <si>
+    <t>Еда</t>
+  </si>
   <si>
     <t>День недели</t>
   </si>
@@ -112,14 +121,56 @@
     <t>15:34</t>
   </si>
   <si>
-    <t>Избранное</t>
+    <t>Соус белый с рассолом - 200</t>
+  </si>
+  <si>
+    <t>Капуста, тушенная с яблоками - 200, Рис отварной - 200</t>
+  </si>
+  <si>
+    <t>Бобовые (горох) в соусе - 200</t>
+  </si>
+  <si>
+    <t>Макароны отварные с овощами - 200</t>
+  </si>
+  <si>
+    <t>Лапшевик с творогом - 200</t>
+  </si>
+  <si>
+    <t>Карп жареный - 200</t>
+  </si>
+  <si>
+    <t>Тесто для оладий - 200</t>
+  </si>
+  <si>
+    <t>Картофель в молоке - 200</t>
+  </si>
+  <si>
+    <t>Горох отварной с копченой грудинкой - 200</t>
+  </si>
+  <si>
+    <t>Зубатка отварная (непластованная, кусками) - 200</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое для пирожков жареных сдобных из муки 1 сорта - 200</t>
+  </si>
+  <si>
+    <t>Бобовые (горох) в соусе со шпиком - 200</t>
+  </si>
+  <si>
+    <t>Вина сладкие белые и красные (в т.ч. шампанское) - 200</t>
+  </si>
+  <si>
+    <t>Антрекот - 150</t>
+  </si>
+  <si>
+    <t>Ничего - 1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,24 +222,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,9 +289,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +323,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +375,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,274 +568,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="62.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -1,135 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Приемы пищи" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
-  <si>
-    <t>Избранное</t>
-  </si>
-  <si>
-    <t>Вес</t>
-  </si>
-  <si>
-    <t>День недели</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>Уровень сахара до</t>
-  </si>
-  <si>
-    <t>Уровень сахара после</t>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>20-04-2020</t>
-  </si>
-  <si>
-    <t>Завтрак</t>
-  </si>
-  <si>
-    <t>Обед</t>
-  </si>
-  <si>
-    <t>Ужин</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>3,88</t>
-  </si>
-  <si>
-    <t>6.88</t>
-  </si>
-  <si>
-    <t>6,88</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>12:34</t>
-  </si>
-  <si>
-    <t>12:39</t>
-  </si>
-  <si>
-    <t>12:40</t>
-  </si>
-  <si>
-    <t>Баклажаны, фаршированные овощами/Грибы, запеченные в сметанном соусе</t>
-  </si>
-  <si>
-    <t>Бобовые (горох) в соусе</t>
-  </si>
-  <si>
-    <t>Вареники ленивые отварные из творога полужирного</t>
-  </si>
-  <si>
-    <t>Мороженое "Восток"/Суфле ванильное</t>
-  </si>
-  <si>
-    <t>150/150</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,20 +64,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -454,147 +410,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>День недели</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Тип</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Уровень сахара до</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Уровень сахара после</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Избранное</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Масса (в граммах)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Понедельник</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>20-04-2020</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Завтрак</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Баклажаны, фаршированные овощами, Грибы, запеченные в сметанном соусе</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>150, 150</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Обед</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Бобовые (горох) в соусе, Макароны с куркумой приготовленные с любимым бубушкиным соусом, а также твои любимые печеньки</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>200, 200</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Вареники ленивые отварные из творога полужирного</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Вина десертные</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Горох отварной с копченой грудинкой</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Ужин</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Суфле ванильное</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Мороженое "Восток"</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C3:C4"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B2">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -97,25 +97,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,51 +426,45 @@
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>День недели</t>
+          <t>Дата</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>Тип</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Тип</t>
+          <t>Уровень сахара до</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Уровень сахара до</t>
+          <t>Уровень сахара после</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Уровень сахара после</t>
+          <t>Время</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Время</t>
+          <t>Продукт</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Избранное</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Масса (в граммах)</t>
         </is>
@@ -478,222 +473,452 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Понедельник</t>
+          <t>17.04.2020</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>20-04-2020</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Птица жареная с томатным соусом с грибами</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>20.04.2020</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Завтрак</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Баклажаны, фаршированные овощами, Грибы, запеченные в сметанном соусе</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>150, 150</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="2" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Запеканка рисовая
+Запеканка рисовая (пшенная, пшеничная) с тыквой
+Запеканка рисовая со свежими плодами
+Каша пшеничная рассыпчатая из крупы "Полтавская"</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>150
+150
+150
+150</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Обед</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="C4" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>12:34</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Бобовые (горох) в соусе, Макароны с куркумой приготовленные с любимым бубушкиным соусом, а также твои любимые печеньки</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>200, 200</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12:39</t>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Бобовые (горох) в соусе</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Вареники ленивые отварные из творога полужирного</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Вина десертные</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>14:10</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>Вина десертные</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Горох отварной с копченой грудинкой</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Горох отварной с копченой грудинкой</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Каша "Геркулесовая" жидкая</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="2" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22:09</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Бобовые (горох) в соусе
+Бобовые (горох) с жиром и луком
+Бобовые (горох) с тушеной капустой</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>150
+150
+150</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Ужин</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="C9" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>12:40</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Суфле ванильное</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Мороженое "Восток"
+Суфле ванильное</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>150
+150</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18:13</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Бобовые (горох) в соусе</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>Мороженое "Восток"</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>21.04.2020</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Пюре из бобовых (гороха)</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Ужин</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20:23</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Бобовые (горох) в соусе</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20:25</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Лапшевик с творогом</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>23.04.2020</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Биточки перловые с творогом</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>25.04.2020</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Сливки с апельсиновым соком</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>26.04.2020</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Икра овощная</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E3:E5"/>
+  <mergeCells count="12">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -151,7 +151,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -450,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +656,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>04.05.2020</t>
+          <t>08.06.2020</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -666,176 +665,145 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>07:05</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Блины
-Наливка "Сливянка"</t>
+          <t>Пиво светлое, с долей сухих в-в в исходном сусле 11%</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>50
-20</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>5.1
-0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>32.6
-28.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>3.1
-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>189.0
-215.0</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="n"/>
       <c r="M4" s="4" t="inlineStr">
         <is>
-          <t>56.0
-56.7</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="N4" s="4" t="inlineStr">
         <is>
-          <t>3.4
-28.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t>29.2
-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="P4" s="4" t="inlineStr">
         <is>
-          <t>1.6
-0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
-          <t>0.3
-0.4</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="R4" s="4" t="inlineStr">
         <is>
-          <t>1.3
-0.1</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
-          <t>379.0
-10.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>97.0
-1.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
-          <t>7.0
-1.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>25.0
-0.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>63.0
-0.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="X4" s="4" t="inlineStr">
         <is>
-          <t>1.4
-0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
         <is>
-          <t>0.0
-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z4" s="4" t="inlineStr">
         <is>
-          <t>0.0
-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AA4" s="4" t="inlineStr">
         <is>
-          <t>0.0
-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" s="4" t="inlineStr">
         <is>
-          <t>0.13
-0.0</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="AC4" s="4" t="inlineStr">
         <is>
-          <t>0.05
-0.0</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AD4" s="4" t="inlineStr">
         <is>
-          <t>1.3
-0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AE4" s="4" t="inlineStr">
         <is>
-          <t>0.0
-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AF4" s="4" t="inlineStr">
         <is>
-          <t>0.0
-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -843,637 +811,205 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:56</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Биточки перловые с творогом</t>
+          <t>Пиво светлое, с долей сухих в-в в исходном сусле 20%
+Пиво темное, с долей сухих в-в в исходном сусле 13%
+Пиво темное, с долей сухих в-в в исходном сусле 20%</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>200
+200
+200</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>0.4
+0.3
+0.4</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>18.9</t>
+          <t>7.6
+5.7
+8.7</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>0.0
+0.0
+0.0</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>166.0</t>
+          <t>75.0
+48.0
+74.0</t>
         </is>
       </c>
       <c r="L5" s="6" t="n"/>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>85.0
+90.0
+85.0</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.0
+0.0
+0.0</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>0.0
+0.0
+0.0</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.0
+0.0
+0.0</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2
+0.2
+0.2</t>
         </is>
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.2
+0.2
+0.3</t>
         </is>
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
-          <t>302.0</t>
+          <t>30.0
+20.0
+40.0</t>
         </is>
       </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>80.0
+60.0
+100.0</t>
         </is>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>18.0
+13.0
+25.0</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>16.0
+12.0
+20.0</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>18.0
+18.0
+20.0</t>
         </is>
       </c>
       <c r="X5" s="4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.1
+0.1
+0.1</t>
         </is>
       </c>
       <c r="Y5" s="4" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>0.0
+0.0
+0.0</t>
         </is>
       </c>
       <c r="Z5" s="4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.0
+0.0
+0.0</t>
         </is>
       </c>
       <c r="AA5" s="4" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>0.0
+0.0
+0.0</t>
         </is>
       </c>
       <c r="AB5" s="4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01
+0.01
+0.01</t>
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05
+0.05
+0.05</t>
         </is>
       </c>
       <c r="AD5" s="4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7
+0.7
+0.7</t>
         </is>
       </c>
       <c r="AE5" s="4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0
+0.0
+0.0</t>
         </is>
       </c>
       <c r="AF5" s="4" t="inlineStr">
         <is>
-          <t>4.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Обед</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Лапша домашняя
-Лисички</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>90
-60</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>12.0
-1.5</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>60.1
-1.0</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>3.7
-1.0</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>322.0
-19.0</t>
-        </is>
-      </c>
-      <c r="L6" s="6" t="n"/>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>18.0
-88.5</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>0.3
-1.0</t>
-        </is>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>59.8
+          <t>0.0
+0.0
 0.0</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>3.2
-7.0</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-0.0</t>
-        </is>
-      </c>
-      <c r="R6" s="4" t="inlineStr">
-        <is>
-          <t>3.0
-1.0</t>
-        </is>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>944.0
-3.0</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>140.0
-450.0</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr">
-        <is>
-          <t>38.0
-4.0</t>
-        </is>
-      </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>18.0
-7.0</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>121.0
-44.0</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="inlineStr">
-        <is>
-          <t>1.7
-0.7</t>
-        </is>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
-        <is>
-          <t>62.0
-0.0</t>
-        </is>
-      </c>
-      <c r="Z6" s="4" t="inlineStr">
-        <is>
-          <t>15.0
-850.0</t>
-        </is>
-      </c>
-      <c r="AA6" s="4" t="inlineStr">
-        <is>
-          <t>64.0
-142.0</t>
-        </is>
-      </c>
-      <c r="AB6" s="4" t="inlineStr">
-        <is>
-          <t>0.17
-0.01</t>
-        </is>
-      </c>
-      <c r="AC6" s="4" t="inlineStr">
-        <is>
-          <t>0.14
-0.35</t>
-        </is>
-      </c>
-      <c r="AD6" s="4" t="inlineStr">
-        <is>
-          <t>1.1
-4.9</t>
-        </is>
-      </c>
-      <c r="AE6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-34.0</t>
-        </is>
-      </c>
-      <c r="AF6" s="4" t="inlineStr">
-        <is>
-          <t>143.0
-0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>05.05.2020</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Обед</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>22:32</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Азу</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="L7" s="6" t="n"/>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>76.1</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>360.0</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>397.0</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>07.05.2020</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Обед</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>13:12</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>Винный уксус (3%)</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="L8" s="7" t="n"/>
-      <c r="M8" s="4" t="inlineStr">
-        <is>
-          <t>97.0</t>
-        </is>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="R8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S8" s="4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="V8" s="4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AE8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AF8" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
   </mergeCells>

--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -151,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,42 +825,36 @@
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Пиво светлое, с долей сухих в-в в исходном сусле 20%
-Пиво темное, с долей сухих в-в в исходном сусле 13%
 Пиво темное, с долей сухих в-в в исходном сусле 20%</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
           <t>200
-200
 200</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
           <t>0.4
-0.3
 0.4</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
           <t>7.6
-5.7
 8.7</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
 0.0</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>75.0
-48.0
 74.0</t>
         </is>
       </c>
@@ -867,149 +862,657 @@
       <c r="M5" s="4" t="inlineStr">
         <is>
           <t>85.0
-90.0
 85.0</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
 0.0</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
 0.0</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
 0.0</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>0.2
-0.2
 0.2</t>
         </is>
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
           <t>0.2
-0.2
 0.3</t>
         </is>
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
           <t>30.0
-20.0
 40.0</t>
         </is>
       </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
           <t>80.0
-60.0
 100.0</t>
         </is>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
           <t>18.0
-13.0
 25.0</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
           <t>16.0
-12.0
 20.0</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
           <t>18.0
-18.0
 20.0</t>
         </is>
       </c>
       <c r="X5" s="4" t="inlineStr">
         <is>
           <t>0.1
-0.1
 0.1</t>
         </is>
       </c>
       <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
 0.0</t>
         </is>
       </c>
       <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
 0.0</t>
         </is>
       </c>
       <c r="AA5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
 0.0</t>
         </is>
       </c>
       <c r="AB5" s="4" t="inlineStr">
         <is>
           <t>0.01
-0.01
 0.01</t>
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
         <is>
           <t>0.05
-0.05
 0.05</t>
         </is>
       </c>
       <c r="AD5" s="4" t="inlineStr">
         <is>
           <t>0.7
-0.7
 0.7</t>
         </is>
       </c>
       <c r="AE5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
 0.0</t>
         </is>
       </c>
       <c r="AF5" s="4" t="inlineStr">
         <is>
           <t>0.0
-0.0
-0.0</t>
+0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Обед</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Ватрушки картофельные с фаршем
+Фарш картофельный с луком</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>100
+100</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>6.2
+2.0</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>17.2
+17.3</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>7.6
+6.3</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>167.0
+132.0</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>64.8
+72.0</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>3.8
+0.0</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>13.4
+0.0</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>0.8
+0.0</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>0.4
+0.1</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>1.9
+2.3</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>343.0
+474.0</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>448.0
+468.0</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>50.0
+20.0</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>21.0
+20.0</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>108.0
+58.0</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+0.9</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>40.0
+0.0</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>30.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>45.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AB6" s="4" t="inlineStr">
+        <is>
+          <t>0.1
+0.1</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>0.15
+0.06</t>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="inlineStr">
+        <is>
+          <t>0.98
+0.97</t>
+        </is>
+      </c>
+      <c r="AE6" s="4" t="inlineStr">
+        <is>
+          <t>1.8
+14.0</t>
+        </is>
+      </c>
+      <c r="AF6" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>KFC, Жареный цыпленок, оригинальный рецепт, бедро, мясо и кожа с панировкой
+KFC, Жареный цыпленок, оригинальный рецепт, бедро, только мясо, кожа и панировка удалены</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>90
+90</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>18.9
+22.78</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>8.46
+0.01</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>17.73
+9.31</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>269.0
+175.0</t>
+        </is>
+      </c>
+      <c r="L7" s="6" t="n"/>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>52.09
+65.65</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>8.46
+0.01</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>2.82
+2.25</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>781.0
+568.0</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>237.0
+230.0</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="inlineStr">
+        <is>
+          <t>64.0
+20.0</t>
+        </is>
+      </c>
+      <c r="V7" s="4" t="inlineStr">
+        <is>
+          <t>22.0
+20.0</t>
+        </is>
+      </c>
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>230.0
+213.0</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>0.88
+0.87</t>
+        </is>
+      </c>
+      <c r="Y7" s="4" t="inlineStr">
+        <is>
+          <t>15.0
+11.0</t>
+        </is>
+      </c>
+      <c r="Z7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AA7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AB7" s="4" t="inlineStr">
+        <is>
+          <t>0.09
+0.09</t>
+        </is>
+      </c>
+      <c r="AC7" s="4" t="inlineStr">
+        <is>
+          <t>0.26
+0.31</t>
+        </is>
+      </c>
+      <c r="AD7" s="4" t="inlineStr">
+        <is>
+          <t>5.52
+5.61</t>
+        </is>
+      </c>
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AF7" s="4" t="inlineStr">
+        <is>
+          <t>104.0
+122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Ужин</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Лапша домашняя
+Лапшевик с творогом</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>120
+120</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>12.0
+7.7</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>60.1
+20.3</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>3.7
+7.4</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>322.0
+180.0</t>
+        </is>
+      </c>
+      <c r="L8" s="7" t="n"/>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>18.0
+62.3</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>0.3
+4.4</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>59.8
+15.9</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>3.2
+0.7</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.4</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
+        <is>
+          <t>3.0
+1.2</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>944.0
+291.0</t>
+        </is>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>140.0
+67.0</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr">
+        <is>
+          <t>38.0
+64.0</t>
+        </is>
+      </c>
+      <c r="V8" s="4" t="inlineStr">
+        <is>
+          <t>18.0
+12.0</t>
+        </is>
+      </c>
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>121.0
+93.0</t>
+        </is>
+      </c>
+      <c r="X8" s="4" t="inlineStr">
+        <is>
+          <t>1.7
+0.6</t>
+        </is>
+      </c>
+      <c r="Y8" s="4" t="inlineStr">
+        <is>
+          <t>62.0
+20.0</t>
+        </is>
+      </c>
+      <c r="Z8" s="4" t="inlineStr">
+        <is>
+          <t>15.0
+10.0</t>
+        </is>
+      </c>
+      <c r="AA8" s="4" t="inlineStr">
+        <is>
+          <t>64.0
+22.0</t>
+        </is>
+      </c>
+      <c r="AB8" s="4" t="inlineStr">
+        <is>
+          <t>0.17
+0.04</t>
+        </is>
+      </c>
+      <c r="AC8" s="4" t="inlineStr">
+        <is>
+          <t>0.14
+0.08</t>
+        </is>
+      </c>
+      <c r="AD8" s="4" t="inlineStr">
+        <is>
+          <t>1.1
+0.4</t>
+        </is>
+      </c>
+      <c r="AE8" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AF8" s="4" t="inlineStr">
+        <is>
+          <t>143.0
+46.0</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L4:L8"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
   </mergeCells>

--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -152,10 +152,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +467,7 @@
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
@@ -477,9 +479,12 @@
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
     <col width="20" customWidth="1" min="29" max="29"/>
     <col width="20" customWidth="1" min="31" max="31"/>
     <col width="20" customWidth="1" min="32" max="32"/>
+    <col width="20" customWidth="1" min="34" max="34"/>
+    <col width="20" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -629,7 +634,7 @@
       </c>
       <c r="AA3" s="2" t="inlineStr">
         <is>
-          <t>Ретин</t>
+          <t>Ретиноловый экв.</t>
         </is>
       </c>
       <c r="AB3" s="2" t="inlineStr">
@@ -655,65 +660,80 @@
       <c r="AF3" s="2" t="inlineStr">
         <is>
           <t>Холестерин</t>
+        </is>
+      </c>
+      <c r="AG3" s="2" t="inlineStr">
+        <is>
+          <t>НЖК</t>
+        </is>
+      </c>
+      <c r="AH3" s="2" t="inlineStr">
+        <is>
+          <t>Ниационвый эквивалент</t>
+        </is>
+      </c>
+      <c r="AI3" s="2" t="inlineStr">
+        <is>
+          <t>Токоферол эквивалент</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>26.06.2020</t>
+          <t>03.07.2020</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Завтрак</t>
+          <t>Ужин</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>5.5</v>
+        <v>3.88</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>6.5</v>
+        <v>6.88</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>21:13</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Овощи, яйца
-"GENERAL MILLS", пшеничные хлопья</t>
+          <t>Вина крепкие
+Вина ликерные</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>200
-30</t>
+          <t>150
+150</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>4.9
-8.3</t>
+          <t>0.4
+0.5</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>5.4
-83.3</t>
+          <t>12.0
+30.0</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>8.1
-2.3</t>
+          <t>0.0
+0.0</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>116.0
-353.0</t>
+          <t>163.0
+212.0</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
@@ -724,481 +744,336 @@
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
-          <t>78.7
-2.6</t>
+          <t>69.2
+54.1</t>
         </is>
       </c>
       <c r="N4" s="4" t="inlineStr">
         <is>
+          <t>12.0
+30.0</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
           <t>0.0
-15.2</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>5.4
 0.0</t>
         </is>
       </c>
       <c r="P4" s="4" t="inlineStr">
         <is>
-          <t>1.0
-10.1</t>
+          <t>1.6
+1.6</t>
         </is>
       </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
-          <t>0.2
-0.0</t>
+          <t>0.6
+0.6</t>
         </is>
       </c>
       <c r="R4" s="4" t="inlineStr">
         <is>
-          <t>1.1
-3.5</t>
+          <t>0.3
+0.3</t>
         </is>
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
-          <t>59.0
-732.0</t>
+          <t>15.0
+17.0</t>
         </is>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>206.0
-328.0</t>
+          <t>150.0
+160.0</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
-          <t>58.0
-74.0</t>
+          <t>15.0
+20.0</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>26.0
-89.0</t>
+          <t>20.0
+25.0</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>99.0
-296.0</t>
+          <t>30.0
+35.0</t>
         </is>
       </c>
       <c r="X4" s="4" t="inlineStr">
         <is>
-          <t>1.3
-33.3</t>
+          <t>0.8
+1.1</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
         <is>
-          <t>130.0
-553.0</t>
+          <t>0.0
+0.0</t>
         </is>
       </c>
       <c r="Z4" s="4" t="inlineStr">
         <is>
-          <t>3840.0
-4.0</t>
+          <t>0.0
+0.0</t>
         </is>
       </c>
       <c r="AA4" s="4" t="inlineStr">
         <is>
-          <t>770.0
-553.6666667</t>
+          <t>0.0
+0.0</t>
         </is>
       </c>
       <c r="AB4" s="4" t="inlineStr">
         <is>
-          <t>0.06
-2.8</t>
+          <t>0.0
+0.0</t>
         </is>
       </c>
       <c r="AC4" s="4" t="inlineStr">
         <is>
-          <t>0.18
-3.1</t>
+          <t>0.01
+0.01</t>
         </is>
       </c>
       <c r="AD4" s="4" t="inlineStr">
         <is>
-          <t>0.69
-37.0</t>
+          <t>0.1
+0.1</t>
         </is>
       </c>
       <c r="AE4" s="4" t="inlineStr">
         <is>
-          <t>8.0
-22.2</t>
+          <t>0.0
+0.0</t>
         </is>
       </c>
       <c r="AF4" s="4" t="inlineStr">
         <is>
           <t>0.0
 0.0</t>
+        </is>
+      </c>
+      <c r="AG4" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AH4" s="4" t="inlineStr">
+        <is>
+          <t>0.1
+0.2</t>
+        </is>
+      </c>
+      <c r="AI4" s="4" t="inlineStr">
+        <is>
+          <t>0
+0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Обед</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>8</v>
-      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>21:14</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Галки из трески
-Зразы донские из хека</t>
+          <t>Азу
+Антрекот</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>500
-500</t>
+          <t>150
+150</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>12.0
-13.1</t>
+          <t>6.3
+29.6</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>7.3
-9.3</t>
+          <t>10.2
+0.0</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>1.1
-5.6</t>
+          <t>4.0
+11.2</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>87.0
-140.0</t>
+          <t>103.0
+220.0</t>
         </is>
       </c>
       <c r="L5" s="6" t="n"/>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t>76.7
-68.0</t>
+          <t>76.1
+56.8</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
-          <t>2.2
-1.5</t>
+          <t>1.7
+0.0</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>5.1
-7.8</t>
+          <t>8.5
+0.0</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
         <is>
-          <t>0.1
-1.3</t>
+          <t>1.1
+0.0</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
+          <t>0.2
+0.0</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>2.1
+2.4</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>360.0
+576.0</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>397.0
+260.0</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
+        <is>
+          <t>17.0
+18.0</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>22.0
+32.0</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>89.0
+277.0</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>1.2
+3.0</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
           <t>0.0
 0.0</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
-        <is>
-          <t>2.8
-2.7</t>
-        </is>
-      </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t>771.0
-795.0</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>242.0
-205.0</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr">
-        <is>
-          <t>52.0
-33.0</t>
-        </is>
-      </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>24.0
-26.0</t>
-        </is>
-      </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>161.0
-156.0</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
-        <is>
-          <t>0.6
-1.2</t>
-        </is>
-      </c>
-      <c r="Y5" s="4" t="inlineStr">
-        <is>
-          <t>10.0
-20.0</t>
-        </is>
-      </c>
       <c r="Z5" s="4" t="inlineStr">
         <is>
-          <t>0.0
-10.0</t>
+          <t>70.0
+40.0</t>
         </is>
       </c>
       <c r="AA5" s="4" t="inlineStr">
         <is>
-          <t>10.0
-22.0</t>
+          <t>12.0
+7.0</t>
         </is>
       </c>
       <c r="AB5" s="4" t="inlineStr">
         <is>
           <t>0.07
-0.12</t>
+0.08</t>
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
         <is>
-          <t>0.07
-0.11</t>
+          <t>0.09
+0.24</t>
         </is>
       </c>
       <c r="AD5" s="4" t="inlineStr">
         <is>
-          <t>1.5
-1.2</t>
+          <t>1.7
+7.2</t>
         </is>
       </c>
       <c r="AE5" s="4" t="inlineStr">
         <is>
-          <t>0.7
-1.2</t>
+          <t>3.8
+0.0</t>
         </is>
       </c>
       <c r="AF5" s="4" t="inlineStr">
         <is>
-          <t>27.0
-106.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Ужин</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Вина десертные
-Блины</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>50
-100</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>0.5
-5.1</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>20.0
-32.6</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-3.1</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>172.0
-189.0</t>
-        </is>
-      </c>
-      <c r="L6" s="7" t="n"/>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>64.1
-56.0</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>20.0
-3.4</t>
-        </is>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-29.2</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>1.6
-1.6</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="inlineStr">
-        <is>
-          <t>0.6
-0.3</t>
-        </is>
-      </c>
-      <c r="R6" s="4" t="inlineStr">
+          <t>21.0
+95.0</t>
+        </is>
+      </c>
+      <c r="AG5" s="4" t="inlineStr">
+        <is>
+          <t>2.7
+9.2</t>
+        </is>
+      </c>
+      <c r="AH5" s="4" t="inlineStr">
+        <is>
+          <t>3
+12.7</t>
+        </is>
+      </c>
+      <c r="AI5" s="4" t="inlineStr">
         <is>
           <t>0.3
-1.3</t>
-        </is>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>17.0
-379.0</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>160.0
-97.0</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr">
-        <is>
-          <t>20.0
-7.0</t>
-        </is>
-      </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>25.0
-25.0</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>35.0
-63.0</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="inlineStr">
-        <is>
-          <t>1.1
-1.4</t>
-        </is>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-0.0</t>
-        </is>
-      </c>
-      <c r="Z6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-0.0</t>
-        </is>
-      </c>
-      <c r="AA6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-0.0</t>
-        </is>
-      </c>
-      <c r="AB6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-0.13</t>
-        </is>
-      </c>
-      <c r="AC6" s="4" t="inlineStr">
-        <is>
-          <t>0.01
-0.05</t>
-        </is>
-      </c>
-      <c r="AD6" s="4" t="inlineStr">
-        <is>
-          <t>0.1
-1.3</t>
-        </is>
-      </c>
-      <c r="AE6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-0.0</t>
-        </is>
-      </c>
-      <c r="AF6" s="4" t="inlineStr">
-        <is>
-          <t>0.0
-0.0</t>
+0.8</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="L4:L6"/>
+  <mergeCells count="7">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
   </mergeCells>
@@ -1212,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,18 +1124,26 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>Время</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
           <t>Минуты</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Тип</t>
         </is>
       </c>
-      <c r="D3" s="8" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Дата</t>
@@ -1274,6 +1157,76 @@
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Часы</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>28.06.2020</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Ходьба</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>28.06.2020</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>9:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>30.06.2020</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>Спорт</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>30.06.2020</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>10:00</t>
         </is>
       </c>
     </row>

--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -152,7 +152,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,10 +885,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n"/>
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>21:14</t>
@@ -1067,15 +1070,878 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>06.07.2020</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Завтрак</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>15:37</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Пудинг из творога запеченный (творог полужирный)
+Сырники из творога (творог нежирный)
+Сырники из творога (творог полужирный)
+Биточки паровые (на воде)
+Биточки паровые (на молоке)</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>150
+150
+150
+150
+150</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>13.9
+18.6
+17.3
+14.0
+14.5</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>20.1
+18.2
+19.2
+8.0
+9.1</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>9.6
+3.6
+11.4
+10.0
+10.8</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>224.0
+183.0
+250.0
+179.0
+192.0</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>52.2
+55.4
+49.1
+64.6
+62.0</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>14.1
+10.2
+10.7
+0.0
+1.2</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>6.0
+8.0
+8.5
+8.0
+7.9</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>1.4
+0.8
+0.0
+0.0
+0.8</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>0.9
+1.1
+0.9
+0.0
+0.1</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>1.9
+2.3
+2.1
+2.5
+2.7</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>348.0
+425.0
+423.0
+770.0
+775.0</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>187.0
+141.0
+136.0
+196.0
+220.0</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>130.0
+132.0
+173.0
+20.0
+44.0</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>22.0
+30.0
+29.0
+26.0
+29.0</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>188.0
+198.0
+207.0
+131.0
+150.0</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>0.9
+0.6
+0.7
+1.2
+1.2</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>60.0
+10.0
+50.0
+0.0
+20.0</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>30.0
+0.0
+40.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>65.0
+10.0
+56.67
+0.0
+20.0</t>
+        </is>
+      </c>
+      <c r="AB6" s="4" t="inlineStr">
+        <is>
+          <t>0.06
+0.08
+0.08
+0.08
+0.07</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>0.22
+0.25
+0.27
+0.12
+0.15</t>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="inlineStr">
+        <is>
+          <t>0.5
+0.8
+0.7
+3.26
+3.3</t>
+        </is>
+      </c>
+      <c r="AE6" s="4" t="inlineStr">
+        <is>
+          <t>0.2
+0.3
+0.3
+0.0
+0.2</t>
+        </is>
+      </c>
+      <c r="AF6" s="4" t="inlineStr">
+        <is>
+          <t>52.0
+19.0
+0.0
+0.0
+43.0</t>
+        </is>
+      </c>
+      <c r="AG6" s="4" t="inlineStr">
+        <is>
+          <t>4.8
+0.7
+0.0
+0.0
+5.3</t>
+        </is>
+      </c>
+      <c r="AH6" s="4" t="inlineStr">
+        <is>
+          <t>3.3
+3.7
+0.0
+0.0
+6.1</t>
+        </is>
+      </c>
+      <c r="AI6" s="4" t="inlineStr">
+        <is>
+          <t>0.8
+1.0
+0.0
+0.0
+0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>07.07.2020</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>Жир куриный
+Жир свиной топленый</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>150
+150</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>99.7
+99.6</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>897.0
+896.0</t>
+        </is>
+      </c>
+      <c r="L7" s="6" t="n"/>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>0.2
+0.3</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>0.1
+0.1</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+1.0</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+1.0</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="V7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+1.0</t>
+        </is>
+      </c>
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+2.0</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="Y7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+10.0</t>
+        </is>
+      </c>
+      <c r="Z7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AA7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+10.0</t>
+        </is>
+      </c>
+      <c r="AB7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AC7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AD7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AF7" s="4" t="inlineStr">
+        <is>
+          <t>95.0
+100.0</t>
+        </is>
+      </c>
+      <c r="AG7" s="4" t="inlineStr">
+        <is>
+          <t>25.0
+44.4</t>
+        </is>
+      </c>
+      <c r="AH7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AI7" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+1.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Лисички
+Опята
+Подберезовики</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>120
+120
+120</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>1.5
+2.2
+2.1</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+0.5
+1.2</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+1.2
+0.8</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>19.0
+22.0
+20.0</t>
+        </is>
+      </c>
+      <c r="L8" s="7" t="n"/>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>88.5
+90.0
+90.1</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+0.5
+1.2</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>7.0
+5.1
+5.1</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+1.0
+0.7</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>3.0
+5.0
+3.0</t>
+        </is>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>450.0
+400.0
+443.0</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr">
+        <is>
+          <t>4.0
+5.0
+6.0</t>
+        </is>
+      </c>
+      <c r="V8" s="4" t="inlineStr">
+        <is>
+          <t>7.0
+20.0
+15.0</t>
+        </is>
+      </c>
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>44.0
+45.0
+171.0</t>
+        </is>
+      </c>
+      <c r="X8" s="4" t="inlineStr">
+        <is>
+          <t>0.7
+0.8
+0.3</t>
+        </is>
+      </c>
+      <c r="Y8" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="Z8" s="4" t="inlineStr">
+        <is>
+          <t>850.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AA8" s="4" t="inlineStr">
+        <is>
+          <t>142.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AB8" s="4" t="inlineStr">
+        <is>
+          <t>0.01
+0.02
+0.07</t>
+        </is>
+      </c>
+      <c r="AC8" s="4" t="inlineStr">
+        <is>
+          <t>0.35
+0.38
+0.22</t>
+        </is>
+      </c>
+      <c r="AD8" s="4" t="inlineStr">
+        <is>
+          <t>4.9
+10.3
+6.3</t>
+        </is>
+      </c>
+      <c r="AE8" s="4" t="inlineStr">
+        <is>
+          <t>34.0
+11.0
+6.0</t>
+        </is>
+      </c>
+      <c r="AF8" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AG8" s="4" t="inlineStr">
+        <is>
+          <t>0.1
+0.2
+0.1</t>
+        </is>
+      </c>
+      <c r="AH8" s="4" t="inlineStr">
+        <is>
+          <t>5.0
+10.7
+6.7</t>
+        </is>
+      </c>
+      <c r="AI8" s="4" t="inlineStr">
+        <is>
+          <t>0.5
+0.1
+0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Срденее за период</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3.897142857142857</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.611428571428571</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>143.57142857142858</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8.635714285714284</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18.77857142857143</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>255.71428571428572</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>57.75714285714286</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.3142857142857142</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1.3928571428571426</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>265.7857142857143</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>224.35714285714286</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>41.714285714285715</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>19.857142857142858</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>111.92857142857143</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0.8928571428571427</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>10.714285714285714</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>73.57142857142857</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>23.047857142857143</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0.044285714285714296</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>2.7971428571428567</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>3.9857142857142853</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>30.357142857142858</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>6.607142857142856</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>3.6785714285714284</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0.4214285714285714</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L4:L8"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1087,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1163,75 +2029,110 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
+          <t>09.07.2020</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>07:40</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>Зарядка</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
           <t>28.06.2020</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Ходьба</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>28.06.2020</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>9:50</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="10" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>Ходьба</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>30.06.2020</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>10:05</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>Работа в саду</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>Спорт</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>30.06.2020</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>Уборка</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="10" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:G2"/>

--- a/app/artemtvi.xlsx
+++ b/app/artemtvi.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1609,7 +1609,7 @@
 20.0</t>
         </is>
       </c>
-      <c r="L8" s="7" t="n"/>
+      <c r="L8" s="6" t="n"/>
       <c r="M8" s="4" t="inlineStr">
         <is>
           <t>88.5
@@ -1772,161 +1772,274 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>16.07.2020</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>01:33</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Ватрушки картофельные с фаршем</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="L9" s="7" t="n"/>
+      <c r="M9" s="4" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>448</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>108</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Срденее за период</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>3.897142857142857</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.611428571428571</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>143.57142857142858</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>8.635714285714284</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>18.77857142857143</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>255.71428571428572</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="C11" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.645</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>8.473333333333333</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>18.033333333333335</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>249.8</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>57.75714285714286</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.3142857142857142</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>1.3928571428571426</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>265.7857142857143</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>224.35714285714286</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>41.714285714285715</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>19.857142857142858</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>111.92857142857143</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0.8928571428571427</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>10.714285714285714</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>73.57142857142857</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>23.047857142857143</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0.044285714285714296</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>0.165</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>2.7971428571428567</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>3.9857142857142853</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>30.357142857142858</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>6.607142857142856</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>3.6785714285714284</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0.4214285714285714</t>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>58.22666666666667</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>5.760000000000001</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.6866666666666668</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1.4266666666666663</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>270.93333333333334</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>239.26666666666668</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>42.266666666666666</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>19.933333333333334</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>111.66666666666667</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0.8999999999999999</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>12.666666666666666</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>70.66666666666667</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>24.511333333333333</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0.04800000000000001</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0.164</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>2.6759999999999997</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>3.8399999999999994</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>28.333333333333332</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>6.166666666666666</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>3.433333333333333</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0.3933333333333333</t>
         </is>
       </c>
     </row>
@@ -1938,10 +2051,10 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L4:L9"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
